--- a/biology/Zoologie/Eumysopinae/Eumysopinae.xlsx
+++ b/biology/Zoologie/Eumysopinae/Eumysopinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eumysopinae est une sous-famille de mammifères rongeurs de la famille des Echimyidae qui regroupe une partie des rats épineux[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eumysopinae est une sous-famille de mammifères rongeurs de la famille des Echimyidae qui regroupe une partie des rats épineux.
 Cette sous-famille a été décrite pour la première fois en 1935 par Carlos Rusconi (1898-1969), un paléontologue argentin.
 </t>
         </is>
@@ -512,15 +524,17 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (2 oct. 2012)[2] et ITIS      (2 oct. 2012)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (2 oct. 2012) et ITIS      (2 oct. 2012) :
 genre Carterodon Waterhouse, 1848 - monospécifique
-genre Clyomys Thomas, 1916 - les rats porcs-épics ou rats à grosse tête[4],[1]
-genre Euryzygomatomys Goeldi, 1901 - monospécifique : le Rat épineux suira[4]
+genre Clyomys Thomas, 1916 - les rats porcs-épics ou rats à grosse tête,
+genre Euryzygomatomys Goeldi, 1901 - monospécifique : le Rat épineux suira
 genre Hoplomys J. A. Allen, 1908 - monospécifique
 genre Lonchothrix Thomas, 1920 - monospécifique
-genre Mesomys Wagner, 1845 - des rats arboricoles[1]
+genre Mesomys Wagner, 1845 - des rats arboricoles
 genre Proechimys J. A. Allen, 1899
 genre Thrichomys Trouessart, 1880
 genre Trinomys Thomas, 1921</t>
